--- a/export/v1.0.8/prefabs.xlsx
+++ b/export/v1.0.8/prefabs.xlsx
@@ -9,14 +9,18 @@
     <sheet name="FactoryRecipes" sheetId="2" r:id="rId3"/>
     <sheet name="AntCastes" sheetId="3" r:id="rId4"/>
     <sheet name="Pickups" sheetId="4" r:id="rId5"/>
-    <sheet name="CrusherOutput" sheetId="5" r:id="rId6"/>
+    <sheet name="Trails" sheetId="5" r:id="rId6"/>
+    <sheet name="PickupCategories" sheetId="6" r:id="rId7"/>
+    <sheet name="StatusEffects" sheetId="7" r:id="rId8"/>
+    <sheet name="Hunger" sheetId="8" r:id="rId9"/>
+    <sheet name="CrusherOutput" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="1539">
   <si>
     <t>CODE</t>
   </si>
@@ -4096,6 +4100,543 @@
   </si>
   <si>
     <t>Berry Seed</t>
+  </si>
+  <si>
+    <t>IN GAME</t>
+  </si>
+  <si>
+    <t>PARENT TRAIL</t>
+  </si>
+  <si>
+    <t>PAGE</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>ERASER</t>
+  </si>
+  <si>
+    <t>SNAP_TO_CONNECTABLE</t>
+  </si>
+  <si>
+    <t>ELDER</t>
+  </si>
+  <si>
+    <t>SHORTCUT</t>
+  </si>
+  <si>
+    <t>// No order = not in buildmenu</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>TRAIL_NULL</t>
+  </si>
+  <si>
+    <t>TRAIL_NULL_DESC</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>TRAIL_MAIN</t>
+  </si>
+  <si>
+    <t>TRAIL_MAIN_DESC</t>
+  </si>
+  <si>
+    <t>HAULING</t>
+  </si>
+  <si>
+    <t>TRAIL_HAULING</t>
+  </si>
+  <si>
+    <t>TRAIL_HAULING_DESC</t>
+  </si>
+  <si>
+    <t>PICKUP</t>
+  </si>
+  <si>
+    <t>FORAGING</t>
+  </si>
+  <si>
+    <t>TRAIL_FORAGING</t>
+  </si>
+  <si>
+    <t>TRAIL_FORAGING_DESC</t>
+  </si>
+  <si>
+    <t>FORAGE</t>
+  </si>
+  <si>
+    <t>PLANT_CUTTING</t>
+  </si>
+  <si>
+    <t>TRAIL_PLANTCUTTING</t>
+  </si>
+  <si>
+    <t>TRAIL_PLANTCUTTING_DESC</t>
+  </si>
+  <si>
+    <t>PLANT_CUT</t>
+  </si>
+  <si>
+    <t>MINING</t>
+  </si>
+  <si>
+    <t>TRAIL_MINING</t>
+  </si>
+  <si>
+    <t>TRAIL_MINING_DESC</t>
+  </si>
+  <si>
+    <t>MINE</t>
+  </si>
+  <si>
+    <t>CORPSE_HAULING</t>
+  </si>
+  <si>
+    <t>PICKUP_CORPSE</t>
+  </si>
+  <si>
+    <t>TRAIL_LAST</t>
+  </si>
+  <si>
+    <t>TRAIL_LAST_DESC</t>
+  </si>
+  <si>
+    <t>GATE_OLD</t>
+  </si>
+  <si>
+    <t>TRAIL_GATEOLD</t>
+  </si>
+  <si>
+    <t>TRAIL_GATEOLD_DESC</t>
+  </si>
+  <si>
+    <t>LIFE_GATE</t>
+  </si>
+  <si>
+    <t>DIVIDER</t>
+  </si>
+  <si>
+    <t>TRAIL_DIVIDER</t>
+  </si>
+  <si>
+    <t>TRAIL_DIVIDER_DESC</t>
+  </si>
+  <si>
+    <t>GATE_SENSORS</t>
+  </si>
+  <si>
+    <t>TRAIL_GATE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATE_DESC</t>
+  </si>
+  <si>
+    <t>GATE_COUNTER</t>
+  </si>
+  <si>
+    <t>TRAIL_ASSIGNER</t>
+  </si>
+  <si>
+    <t>TRAIL_ASSIGNER_DESC</t>
+  </si>
+  <si>
+    <t>COUNTER_GATE</t>
+  </si>
+  <si>
+    <t>GATE_COUNTER_END</t>
+  </si>
+  <si>
+    <t>TRAIL_COUNTEREND</t>
+  </si>
+  <si>
+    <t>TRAIL_COUNTEREND_DESC</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATE_GENERIC</t>
+  </si>
+  <si>
+    <t>TRAIL_GATE_GENERIC_DESC</t>
+  </si>
+  <si>
+    <t>GATE_CARRY</t>
+  </si>
+  <si>
+    <t>TRAIL_GATECARRY</t>
+  </si>
+  <si>
+    <t>TRAIL_GATECARRY_DESC</t>
+  </si>
+  <si>
+    <t>GATE_CASTE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATECASTE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATECASTE_DESC</t>
+  </si>
+  <si>
+    <t>GATE_TIMER</t>
+  </si>
+  <si>
+    <t>TRAIL_GATETIMER</t>
+  </si>
+  <si>
+    <t>TRAIL_GATETIMER_DESC</t>
+  </si>
+  <si>
+    <t>GATE_STOCKPILE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATESTOCKPILE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATESTOCKPILE_DESC</t>
+  </si>
+  <si>
+    <t>GATE_SPEED</t>
+  </si>
+  <si>
+    <t>TRAIL_GATESPEED</t>
+  </si>
+  <si>
+    <t>TRAIL_GATESPEED_DESC</t>
+  </si>
+  <si>
+    <t>GATE_LIFE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATELIFE</t>
+  </si>
+  <si>
+    <t>TRAIL_GATELIFE_DESC</t>
+  </si>
+  <si>
+    <t>TRAIL_ERASER</t>
+  </si>
+  <si>
+    <t>TRAIL_ERASER_DESC</t>
+  </si>
+  <si>
+    <t>TRAIL_ERASER_BIG</t>
+  </si>
+  <si>
+    <t>TRAIL_ERASERBIG</t>
+  </si>
+  <si>
+    <t>TRAIL_ERASERBIG_DESC</t>
+  </si>
+  <si>
+    <t>BIG_ERASER</t>
+  </si>
+  <si>
+    <t>FLOOR_DEMOLISH</t>
+  </si>
+  <si>
+    <t>TRAIL_FLOORDEMOLISH</t>
+  </si>
+  <si>
+    <t>TRAIL_FLOORDEMOLISH_DESC</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>Command Trail</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>IN_BUILDING</t>
+  </si>
+  <si>
+    <t>Building Trail</t>
+  </si>
+  <si>
+    <t>IN_BUILDING_GATE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>TITLE PLURAL</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_ENERGY</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_RAW</t>
+  </si>
+  <si>
+    <t>Raw Materials</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_PROCESSED</t>
+  </si>
+  <si>
+    <t>Processed Materials</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_LIQUID</t>
+  </si>
+  <si>
+    <t>Liquids</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_DUST</t>
+  </si>
+  <si>
+    <t>Dusts</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_GOODS</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_LIVING</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>JUNK</t>
+  </si>
+  <si>
+    <t>PICKUPCAT_JUNK</t>
+  </si>
+  <si>
+    <t>Junk</t>
+  </si>
+  <si>
+    <t>FRUIT</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>FUEL</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>FIBER</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Fibers</t>
+  </si>
+  <si>
+    <t>STONE</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Stones</t>
+  </si>
+  <si>
+    <t>METAL</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Corpse</t>
+  </si>
+  <si>
+    <t>Corpses</t>
+  </si>
+  <si>
+    <t>EFFECT</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>LIFE DRAIN</t>
+  </si>
+  <si>
+    <t>RAD DEATH</t>
+  </si>
+  <si>
+    <t>DEATH</t>
+  </si>
+  <si>
+    <t>DEATH EXPLOSION</t>
+  </si>
+  <si>
+    <t>BLOCK AP</t>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+  </si>
+  <si>
+    <t>ELECTROLYSING</t>
+  </si>
+  <si>
+    <t>EFFECT AREA</t>
+  </si>
+  <si>
+    <t>AREA RADIUS</t>
+  </si>
+  <si>
+    <t>ENERGY DRAIN</t>
+  </si>
+  <si>
+    <t>RADIATED_LIGHT</t>
+  </si>
+  <si>
+    <t>RADIATED_MEDIUM</t>
+  </si>
+  <si>
+    <t>RADIATED_HEAVY</t>
+  </si>
+  <si>
+    <t>RADIATION_DEATH</t>
+  </si>
+  <si>
+    <t>CHARGED</t>
+  </si>
+  <si>
+    <t>DISEASED</t>
+  </si>
+  <si>
+    <t>HYPER</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>ELECTROLYSED</t>
+  </si>
+  <si>
+    <t>ELDER_SPED</t>
+  </si>
+  <si>
+    <t>ELDER_SLOWED</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>IF BELOW</t>
+  </si>
+  <si>
+    <t>LARVA PM</t>
+  </si>
+  <si>
+    <t>ANIM SPEED</t>
+  </si>
+  <si>
+    <t>MAX POP</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>A6A6A6</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>D91C1C</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Stage 8</t>
+  </si>
+  <si>
+    <t>Stage 9</t>
+  </si>
+  <si>
+    <t>Stage 10</t>
+  </si>
+  <si>
+    <t>Stage 11</t>
+  </si>
+  <si>
+    <t>Stage 12</t>
+  </si>
+  <si>
+    <t>Stage 13</t>
+  </si>
+  <si>
+    <t>Stage 14</t>
+  </si>
+  <si>
+    <t>Stage 15</t>
+  </si>
+  <si>
+    <t>Stage 16</t>
+  </si>
+  <si>
+    <t>Stage 17</t>
   </si>
 </sst>
 </file>
@@ -4135,7 +4676,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff006400"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff90ee90"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff006400"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff90ee90"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff006400"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff90ee90"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff006400"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff90ee90"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
     <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <font>
         <color rgb="ff006400"/>
@@ -4276,8 +4857,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Pickups_Data" displayName="Pickups_Data" ref="A1:O82" headerRowCount="1">
-  <autoFilter ref="A1:O82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Pickups_Data" displayName="Pickups_Data" ref="A1:O65" headerRowCount="1">
+  <autoFilter ref="A1:O65"/>
   <tableColumns count="15">
     <tableColumn id="1" name="TYPE"/>
     <tableColumn id="2" name="ORDER"/>
@@ -4300,7 +4881,91 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CrusherOutput_data" displayName="CrusherOutput_data" ref="A1:M34" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Trails_Data" displayName="Trails_Data" ref="A1:P29" headerRowCount="1">
+  <autoFilter ref="A1:P29"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="TYPE"/>
+    <tableColumn id="2" name="ORDER"/>
+    <tableColumn id="3" name="IN GAME"/>
+    <tableColumn id="4" name="TITLE"/>
+    <tableColumn id="5" name="DESCRIPTION"/>
+    <tableColumn id="6" name="EXCHANGE TYPES"/>
+    <tableColumn id="7" name="PARENT TRAIL"/>
+    <tableColumn id="8" name="PAGE"/>
+    <tableColumn id="9" name="LOGIC"/>
+    <tableColumn id="10" name="ERASER"/>
+    <tableColumn id="11" name="SNAP_TO_CONNECTABLE"/>
+    <tableColumn id="12" name="TUTORIAL"/>
+    <tableColumn id="13" name="IN DEMO"/>
+    <tableColumn id="14" name="ELDER"/>
+    <tableColumn id="15" name="SHORTCUT"/>
+    <tableColumn id="16" name="RowOrder"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PickupCategories_Data" displayName="PickupCategories_Data" ref="A1:H17" headerRowCount="1">
+  <autoFilter ref="A1:H17"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ENUM"/>
+    <tableColumn id="2" name="ORDER"/>
+    <tableColumn id="3" name="TITLE"/>
+    <tableColumn id="4" name="TITLE PLURAL"/>
+    <tableColumn id="5" name="DESCRIPTION"/>
+    <tableColumn id="6" name="INVENTORY"/>
+    <tableColumn id="7" name="EXAMPLE"/>
+    <tableColumn id="8" name="RowOrder"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="StatusEffects_Data" displayName="StatusEffects_Data" ref="A1:P13" headerRowCount="1">
+  <autoFilter ref="A1:P13"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="EFFECT"/>
+    <tableColumn id="2" name="DURATION"/>
+    <tableColumn id="3" name="SPEED"/>
+    <tableColumn id="4" name="LIFE DRAIN"/>
+    <tableColumn id="5" name="RADIATION"/>
+    <tableColumn id="6" name="RAD DEATH"/>
+    <tableColumn id="7" name="DEATH"/>
+    <tableColumn id="8" name="DEATH EXPLOSION"/>
+    <tableColumn id="9" name="BLOCK AP"/>
+    <tableColumn id="10" name="TRIGGER"/>
+    <tableColumn id="11" name="ELECTROLYSING"/>
+    <tableColumn id="12" name="IMMUNITIES"/>
+    <tableColumn id="13" name="EFFECT AREA"/>
+    <tableColumn id="14" name="AREA RADIUS"/>
+    <tableColumn id="15" name="ENERGY DRAIN"/>
+    <tableColumn id="16" name="RowOrder"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Hunger_Data" displayName="Hunger_Data" ref="A1:H19" headerRowCount="1">
+  <autoFilter ref="A1:H19"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="NAME"/>
+    <tableColumn id="2" name="IF BELOW"/>
+    <tableColumn id="3" name="LARVA PM"/>
+    <tableColumn id="4" name="ANIM SPEED"/>
+    <tableColumn id="5" name="MAX POP"/>
+    <tableColumn id="6" name="DRAIN"/>
+    <tableColumn id="7" name="COLOR"/>
+    <tableColumn id="8" name="RowOrder"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="CrusherOutput_data" displayName="CrusherOutput_data" ref="A1:M34" headerRowCount="1">
   <autoFilter ref="A1:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="ENUM"/>
@@ -11991,7 +12656,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12400,25 +13065,52 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G12" s="0">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>1153</v>
+      </c>
       <c r="O12" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B13" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>910</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="G13" s="0">
         <v>1</v>
@@ -12430,125 +13122,146 @@
         <v>24</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="O13" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B14" s="0">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>910</v>
+        <v>1159</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="G14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="O14" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B15" s="0">
+        <v>102</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G15" s="0">
+        <v>3</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>1166</v>
+      </c>
       <c r="O15" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B16" s="0">
-        <v>101</v>
+        <v>1167</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="G16" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="O16" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="B17" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="G17" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="O17" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1167</v>
+        <v>1175</v>
+      </c>
+      <c r="B18" s="0">
+        <v>104</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="G18" s="0">
         <v>2</v>
@@ -12556,148 +13269,145 @@
       <c r="H18" s="0" t="s">
         <v>1112</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="L18" s="0" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="O18" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="B19" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="G19" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="O19" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="B20" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="G20" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="O20" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B21" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="G21" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>1182</v>
+        <v>1190</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>1191</v>
       </c>
       <c r="O21" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="B22" s="0">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="G22" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>1112</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="L22" s="0" t="s">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="O22" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B23" s="0">
-        <v>107</v>
+        <v>1196</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>1189</v>
-      </c>
       <c r="G23" s="0">
         <v>1</v>
       </c>
@@ -12705,98 +13415,134 @@
         <v>1112</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="O23" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G24" s="0">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>1199</v>
+      </c>
       <c r="O24" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B25" s="0">
-        <v>201</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>1194</v>
-      </c>
       <c r="G25" s="0">
         <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L25" s="0" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="O25" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1196</v>
+        <v>1202</v>
+      </c>
+      <c r="B26" s="0">
+        <v>401</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1159</v>
+        <v>1203</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1205</v>
       </c>
       <c r="G26" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>1112</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="L26" s="0" t="s">
-        <v>1197</v>
+        <v>1206</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>492</v>
       </c>
       <c r="O26" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1198</v>
+        <v>1207</v>
+      </c>
+      <c r="B27" s="0">
+        <v>402</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1159</v>
+        <v>1203</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1209</v>
       </c>
       <c r="G27" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>1199</v>
+        <v>1210</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>496</v>
       </c>
       <c r="O27" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1200</v>
+        <v>1211</v>
+      </c>
+      <c r="B28" s="0">
+        <v>403</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1159</v>
+        <v>1203</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1213</v>
       </c>
       <c r="G28" s="0">
         <v>1</v>
@@ -12804,167 +13550,194 @@
       <c r="H28" s="0" t="s">
         <v>1112</v>
       </c>
+      <c r="J28" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="L28" s="0" t="s">
-        <v>1201</v>
+        <v>1214</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>531</v>
       </c>
       <c r="O28" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B29" s="0">
+        <v>404</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G29" s="0">
+        <v>4</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>544</v>
+      </c>
       <c r="O29" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
       <c r="B30" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="G30" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>492</v>
+        <v>1222</v>
       </c>
       <c r="O30" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="B31" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="G31" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O31" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="B32" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J32" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L32" s="0" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="O32" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="B33" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="G33" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="O33" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="B34" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="G34" s="0">
         <v>1</v>
@@ -12972,508 +13745,589 @@
       <c r="H34" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L34" s="0" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="O34" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="B35" s="0">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="G35" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1112</v>
+        <v>1240</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>500</v>
+        <v>1243</v>
       </c>
       <c r="O35" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
       <c r="B36" s="0">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="G36" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1112</v>
+        <v>1240</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>503</v>
+        <v>1247</v>
       </c>
       <c r="O36" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="B37" s="0">
-        <v>408</v>
+        <v>503</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="G37" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1112</v>
+        <v>1240</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>510</v>
+        <v>1251</v>
       </c>
       <c r="O37" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="B38" s="0">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="G38" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1112</v>
+        <v>1240</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>1238</v>
+        <v>1255</v>
       </c>
       <c r="O38" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B39" s="0">
+        <v>505</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G39" s="0">
+        <v>2</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>1259</v>
+      </c>
       <c r="O39" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1239</v>
+        <v>1260</v>
       </c>
       <c r="B40" s="0">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1241</v>
+        <v>1262</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1242</v>
+        <v>1263</v>
       </c>
       <c r="G40" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>1243</v>
+        <v>1264</v>
       </c>
       <c r="O40" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
       <c r="B41" s="0">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
       <c r="G41" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>1247</v>
+        <v>1268</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>1191</v>
       </c>
       <c r="O41" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1248</v>
+        <v>1269</v>
       </c>
       <c r="B42" s="0">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1249</v>
+        <v>1270</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1250</v>
+        <v>1271</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>1251</v>
+        <v>1272</v>
       </c>
       <c r="O42" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1252</v>
+        <v>1273</v>
       </c>
       <c r="B43" s="0">
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1253</v>
+        <v>1274</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1254</v>
+        <v>1275</v>
       </c>
       <c r="G43" s="0">
         <v>2</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>1255</v>
+        <v>1276</v>
       </c>
       <c r="O43" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1256</v>
+        <v>1277</v>
       </c>
       <c r="B44" s="0">
-        <v>505</v>
+        <v>701</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1240</v>
+        <v>1278</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1257</v>
+        <v>1279</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1258</v>
+        <v>1280</v>
       </c>
       <c r="G44" s="0">
         <v>2</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1240</v>
+        <v>1112</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>1259</v>
+        <v>1281</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>493</v>
       </c>
       <c r="O44" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B45" s="0">
+        <v>702</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G45" s="0">
+        <v>4</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>517</v>
+      </c>
       <c r="O45" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="B46" s="0">
-        <v>601</v>
+        <v>703</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1262</v>
+        <v>1287</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1263</v>
+        <v>1288</v>
       </c>
       <c r="G46" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>24</v>
+        <v>1112</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>1264</v>
+        <v>1289</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>497</v>
       </c>
       <c r="O46" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1265</v>
+        <v>1290</v>
       </c>
       <c r="B47" s="0">
-        <v>602</v>
+        <v>704</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1266</v>
+        <v>1291</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1267</v>
+        <v>1292</v>
       </c>
       <c r="G47" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1261</v>
+        <v>1112</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>1191</v>
+        <v>1293</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>527</v>
       </c>
       <c r="O47" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1269</v>
+        <v>1294</v>
       </c>
       <c r="B48" s="0">
-        <v>603</v>
+        <v>705</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1270</v>
+        <v>1295</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1271</v>
+        <v>1296</v>
       </c>
       <c r="G48" s="0">
         <v>2</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1261</v>
+        <v>1112</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>1272</v>
+        <v>1297</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>547</v>
       </c>
       <c r="O48" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1273</v>
+        <v>1298</v>
       </c>
       <c r="B49" s="0">
-        <v>604</v>
+        <v>706</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1274</v>
+        <v>1299</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>1261</v>
+        <v>1112</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>1276</v>
+        <v>1301</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>1302</v>
       </c>
       <c r="O49" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B50" s="0">
+        <v>707</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G50" s="0">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>523</v>
+      </c>
       <c r="O50" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1277</v>
+        <v>1307</v>
       </c>
       <c r="B51" s="0">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1279</v>
+        <v>1308</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1280</v>
+        <v>1309</v>
       </c>
       <c r="G51" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J51" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L51" s="0" t="s">
-        <v>1281</v>
+        <v>1310</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>493</v>
+        <v>1311</v>
       </c>
       <c r="O51" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1282</v>
+        <v>1312</v>
       </c>
       <c r="B52" s="0">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1283</v>
+        <v>1313</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1284</v>
+        <v>1314</v>
       </c>
       <c r="G52" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="J52" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L52" s="0" t="s">
-        <v>1285</v>
+        <v>1315</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="O52" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1286</v>
+        <v>1316</v>
       </c>
       <c r="B53" s="0">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1287</v>
+        <v>1317</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1288</v>
+        <v>1318</v>
       </c>
       <c r="G53" s="0">
         <v>1</v>
@@ -13482,62 +14336,62 @@
         <v>1112</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>1289</v>
+        <v>1319</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="O53" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="B54" s="0">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1291</v>
+        <v>1321</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1292</v>
+        <v>1322</v>
       </c>
       <c r="G54" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>1293</v>
+        <v>1320</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="O54" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1294</v>
+        <v>1323</v>
       </c>
       <c r="B55" s="0">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1295</v>
+        <v>1324</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1296</v>
+        <v>1325</v>
       </c>
       <c r="G55" s="0">
         <v>2</v>
@@ -13546,560 +14400,286 @@
         <v>1112</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>1297</v>
+        <v>1326</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="O55" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>1298</v>
+        <v>1327</v>
       </c>
       <c r="B56" s="0">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1299</v>
+        <v>1328</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1300</v>
+        <v>1329</v>
       </c>
       <c r="G56" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>1301</v>
+        <v>1330</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>1302</v>
+        <v>563</v>
       </c>
       <c r="O56" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>1303</v>
+        <v>1331</v>
       </c>
       <c r="B57" s="0">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1304</v>
+        <v>1332</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1305</v>
+        <v>1333</v>
       </c>
       <c r="G57" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>1306</v>
+        <v>1334</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="O57" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>1307</v>
+        <v>1335</v>
       </c>
       <c r="B58" s="0">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1278</v>
+        <v>1336</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1308</v>
+        <v>1337</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="G58" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>1112</v>
+        <v>1336</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>1311</v>
+        <v>1339</v>
       </c>
       <c r="O58" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>1312</v>
+        <v>1340</v>
       </c>
       <c r="B59" s="0">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>1278</v>
+        <v>1336</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>1313</v>
+        <v>1341</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1314</v>
+        <v>1342</v>
       </c>
       <c r="G59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>1112</v>
+        <v>1336</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>535</v>
+        <v>1343</v>
       </c>
       <c r="O59" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>1316</v>
+        <v>1344</v>
       </c>
       <c r="B60" s="0">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>1278</v>
+        <v>1336</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1317</v>
+        <v>1345</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1318</v>
+        <v>1346</v>
       </c>
       <c r="G60" s="0">
         <v>1</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>1112</v>
+        <v>1336</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>555</v>
+        <v>1347</v>
       </c>
       <c r="O60" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B61" s="0">
-        <v>711</v>
+        <v>941</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>1278</v>
+        <v>922</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
       <c r="G61" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>1320</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>567</v>
+        <v>1349</v>
       </c>
       <c r="O61" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B62" s="0">
-        <v>712</v>
+        <v>929</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1278</v>
+        <v>922</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="G62" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>559</v>
+        <v>1351</v>
       </c>
       <c r="O62" s="0">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B63" s="0">
-        <v>713</v>
+        <v>934</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>1278</v>
+        <v>922</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="G63" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>563</v>
+        <v>1353</v>
       </c>
       <c r="O63" s="0">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B64" s="0">
-        <v>714</v>
+        <v>1025</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1278</v>
+        <v>922</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>1333</v>
+        <v>1354</v>
       </c>
       <c r="G64" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>571</v>
+        <v>1355</v>
       </c>
       <c r="O64" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G65" s="0">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>1359</v>
+      </c>
       <c r="O65" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B66" s="0">
-        <v>800</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G66" s="0">
-        <v>1</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="O66" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B67" s="0">
-        <v>801</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G67" s="0">
-        <v>1</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="O67" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B68" s="0">
-        <v>802</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G68" s="0">
-        <v>1</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="O68" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="O69" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G70" s="0">
-        <v>3</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="O70" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>929</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G71" s="0">
-        <v>3</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="O71" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G72" s="0">
-        <v>3</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="O72" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G73" s="0">
-        <v>3</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O73" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="O74" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G75" s="0">
-        <v>1</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O75" s="0">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="O76" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="O77" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="O78" s="0">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="O79" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="O80" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="O81" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="O82" s="0">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:O82">
+  <conditionalFormatting sqref="A1:O65">
     <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
       <formula>"x"</formula>
     </cfRule>
@@ -14112,6 +14692,1796 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.689294815063477" customWidth="1"/>
+    <col min="2" max="2" width="28.543367385864258" customWidth="1"/>
+    <col min="3" max="3" width="11.597593307495117" customWidth="1"/>
+    <col min="4" max="4" width="22.782485961914062" customWidth="1"/>
+    <col min="5" max="5" width="28.381723403930664" customWidth="1"/>
+    <col min="6" max="6" width="19.14167594909668" customWidth="1"/>
+    <col min="7" max="7" width="16.10828685760498" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.353545188903809" customWidth="1"/>
+    <col min="11" max="11" width="26.05043601989746" customWidth="1"/>
+    <col min="12" max="12" width="15.838942527770996" customWidth="1"/>
+    <col min="13" max="13" width="11.743890762329102" customWidth="1"/>
+    <col min="14" max="14" width="9.177020072937012" customWidth="1"/>
+    <col min="15" max="15" width="13.237565994262695" customWidth="1"/>
+    <col min="16" max="16" width="12.655442237854004" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B7" s="0">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="0">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B8" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="0">
+        <v>3</v>
+      </c>
+      <c r="P8" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B9" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0">
+        <v>4</v>
+      </c>
+      <c r="P9" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="P10" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B11" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="0">
+        <v>5</v>
+      </c>
+      <c r="P11" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B12" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O12" s="0">
+        <v>6</v>
+      </c>
+      <c r="P12" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B13" s="0">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="0">
+        <v>7</v>
+      </c>
+      <c r="P13" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B15" s="0">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="0">
+        <v>8</v>
+      </c>
+      <c r="P15" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B17" s="0">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="0">
+        <v>9</v>
+      </c>
+      <c r="P17" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B24" s="0">
+        <v>50</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P25" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="0">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P29">
+    <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.697572708129883" customWidth="1"/>
+    <col min="2" max="2" width="9.816435813903809" customWidth="1"/>
+    <col min="3" max="3" width="22.65460205078125" customWidth="1"/>
+    <col min="4" max="4" width="19.084104537963867" customWidth="1"/>
+    <col min="5" max="5" width="15.434087753295898" customWidth="1"/>
+    <col min="6" max="6" width="13.97519588470459" customWidth="1"/>
+    <col min="7" max="7" width="22.036670684814453" customWidth="1"/>
+    <col min="8" max="8" width="12.655442237854004" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H5" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H7" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B8" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H8" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B9" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H9" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B10" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="H10" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B11" s="0">
+        <v>100</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H11" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B12" s="0">
+        <v>101</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H12" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B13" s="0">
+        <v>102</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H13" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B14" s="0">
+        <v>103</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H14" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B15" s="0">
+        <v>104</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H15" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B16" s="0">
+        <v>105</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H16" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="B17" s="0">
+        <v>106</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="H17" s="0">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:H17">
+    <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.4626407623291" customWidth="1"/>
+    <col min="2" max="2" width="13.2130126953125" customWidth="1"/>
+    <col min="3" max="3" width="9.20464277267456" customWidth="1"/>
+    <col min="4" max="4" width="13.331687927246094" customWidth="1"/>
+    <col min="5" max="5" width="13.6212158203125" customWidth="1"/>
+    <col min="6" max="6" width="13.926088333129883" customWidth="1"/>
+    <col min="7" max="7" width="9.689575672149658" customWidth="1"/>
+    <col min="8" max="8" width="20.1606502532959" customWidth="1"/>
+    <col min="9" max="9" width="12.297369003295898" customWidth="1"/>
+    <col min="10" max="10" width="11.377634048461914" customWidth="1"/>
+    <col min="11" max="11" width="17.729846000671387" customWidth="1"/>
+    <col min="12" max="12" width="14.858101844787598" customWidth="1"/>
+    <col min="13" max="13" width="15.167067527770996" customWidth="1"/>
+    <col min="14" max="14" width="15.541509628295898" customWidth="1"/>
+    <col min="15" max="15" width="16.921624183654785" customWidth="1"/>
+    <col min="16" max="16" width="12.655442237854004" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="0">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N5" s="0">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B7" s="0">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0">
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N7" s="0">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B8" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P13">
+    <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.20464277267456" customWidth="1"/>
+    <col min="2" max="2" width="12.169486045837402" customWidth="1"/>
+    <col min="3" max="3" width="12.913254737854004" customWidth="1"/>
+    <col min="4" max="4" width="14.724080085754395" customWidth="1"/>
+    <col min="5" max="5" width="12.025233268737793" customWidth="1"/>
+    <col min="6" max="6" width="9.347872257232666" customWidth="1"/>
+    <col min="7" max="7" width="9.750959873199463" customWidth="1"/>
+    <col min="8" max="8" width="12.655442237854004" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B3" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B4" s="0">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B5" s="0">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>50</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E6" s="0">
+        <v>75</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E7" s="0">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E8" s="0">
+        <v>150</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E9" s="0">
+        <v>200</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E10" s="0">
+        <v>250</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E11" s="0">
+        <v>300</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E12" s="0">
+        <v>400</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E13" s="0">
+        <v>500</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E14" s="0">
+        <v>750</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="0">
+        <v>5</v>
+      </c>
+      <c r="H15" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25</v>
+      </c>
+      <c r="H16" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="0">
+        <v>100</v>
+      </c>
+      <c r="H17" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H18" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H19" s="0">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:H19">
+    <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M34"/>
   <sheetViews>
@@ -14855,7 +17225,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:M34">
-    <cfRule priority="1" type="cellIs" operator="equal" dxfId="4">
+    <cfRule priority="1" type="cellIs" operator="equal" dxfId="8">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
